--- a/spreadsheets/new/GSE109488.0.xlsx
+++ b/spreadsheets/new/GSE109488.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49735E4-34CB-BB4F-81B2-B2B244E9AF46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="31920" windowHeight="18700" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_suspension" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="Sequencing_protocol" sheetId="8" r:id="rId8"/>
     <sheet name="Specimen_from_organism" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3087" uniqueCount="1355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="1356">
   <si>
     <t>CELL_SUSPENSION.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -4087,13 +4093,16 @@
   </si>
   <si>
     <t>Human Embryonic Kidney Cells</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4130,6 +4139,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4176,7 +4193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4208,9 +4225,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4242,6 +4277,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4417,75 +4470,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="115.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="115.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4664,7 +4713,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -4843,7 +4892,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -5001,7 +5050,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -5180,12 +5229,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -5205,7 +5254,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>213</v>
       </c>
@@ -5225,7 +5274,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>217</v>
       </c>
@@ -5245,7 +5294,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>221</v>
       </c>
@@ -5265,7 +5314,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>225</v>
       </c>
@@ -5285,7 +5334,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>229</v>
       </c>
@@ -5305,7 +5354,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>233</v>
       </c>
@@ -5325,7 +5374,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>237</v>
       </c>
@@ -5345,7 +5394,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>241</v>
       </c>
@@ -5365,7 +5414,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>245</v>
       </c>
@@ -5385,7 +5434,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>249</v>
       </c>
@@ -5405,7 +5454,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>253</v>
       </c>
@@ -5425,7 +5474,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>257</v>
       </c>
@@ -5445,7 +5494,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>261</v>
       </c>
@@ -5465,7 +5514,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>265</v>
       </c>
@@ -5485,7 +5534,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>269</v>
       </c>
@@ -5505,7 +5554,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>273</v>
       </c>
@@ -5525,7 +5574,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>277</v>
       </c>
@@ -5545,7 +5594,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>281</v>
       </c>
@@ -5565,7 +5614,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>285</v>
       </c>
@@ -5585,7 +5634,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>289</v>
       </c>
@@ -5605,7 +5654,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>293</v>
       </c>
@@ -5625,7 +5674,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>297</v>
       </c>
@@ -5645,7 +5694,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>301</v>
       </c>
@@ -5665,7 +5714,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>305</v>
       </c>
@@ -5685,7 +5734,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>309</v>
       </c>
@@ -5705,7 +5754,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -5725,7 +5774,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>317</v>
       </c>
@@ -5745,7 +5794,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>321</v>
       </c>
@@ -5765,7 +5814,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>325</v>
       </c>
@@ -5785,7 +5834,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>329</v>
       </c>
@@ -5805,7 +5854,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>333</v>
       </c>
@@ -5825,7 +5874,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>337</v>
       </c>
@@ -5845,7 +5894,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>341</v>
       </c>
@@ -5865,7 +5914,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>345</v>
       </c>
@@ -5885,7 +5934,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>349</v>
       </c>
@@ -5905,7 +5954,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>353</v>
       </c>
@@ -5925,7 +5974,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>357</v>
       </c>
@@ -5945,7 +5994,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>361</v>
       </c>
@@ -5965,7 +6014,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>365</v>
       </c>
@@ -5985,7 +6034,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>369</v>
       </c>
@@ -6005,7 +6054,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>373</v>
       </c>
@@ -6025,7 +6074,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>377</v>
       </c>
@@ -6045,7 +6094,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>381</v>
       </c>
@@ -6065,7 +6114,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>385</v>
       </c>
@@ -6085,7 +6134,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>389</v>
       </c>
@@ -6105,7 +6154,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>393</v>
       </c>
@@ -6125,7 +6174,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>397</v>
       </c>
@@ -6145,7 +6194,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>401</v>
       </c>
@@ -6165,7 +6214,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>405</v>
       </c>
@@ -6185,7 +6234,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>409</v>
       </c>
@@ -6205,7 +6254,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>413</v>
       </c>
@@ -6225,7 +6274,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>417</v>
       </c>
@@ -6245,7 +6294,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>421</v>
       </c>
@@ -6265,7 +6314,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>425</v>
       </c>
@@ -6285,7 +6334,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>429</v>
       </c>
@@ -6305,7 +6354,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>433</v>
       </c>
@@ -6325,7 +6374,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>437</v>
       </c>
@@ -6345,7 +6394,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>441</v>
       </c>
@@ -6365,7 +6414,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="65" spans="1:41">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>445</v>
       </c>
@@ -6385,7 +6434,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="66" spans="1:41">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>449</v>
       </c>
@@ -6405,7 +6454,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="67" spans="1:41">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>453</v>
       </c>
@@ -6425,7 +6474,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="68" spans="1:41">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>457</v>
       </c>
@@ -6445,7 +6494,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="69" spans="1:41">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>461</v>
       </c>
@@ -6465,7 +6514,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="70" spans="1:41">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>465</v>
       </c>
@@ -6485,7 +6534,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="71" spans="1:41">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>469</v>
       </c>
@@ -6505,7 +6554,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="72" spans="1:41">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>473</v>
       </c>
@@ -6525,7 +6574,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="73" spans="1:41">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>477</v>
       </c>
@@ -6545,7 +6594,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="74" spans="1:41">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>481</v>
       </c>
@@ -6565,7 +6614,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="75" spans="1:41">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>485</v>
       </c>
@@ -6591,93 +6640,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BY14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>489</v>
       </c>
@@ -6910,7 +6957,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -7143,7 +7190,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -7358,7 +7405,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>593</v>
       </c>
@@ -7591,12 +7638,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>654</v>
       </c>
@@ -7616,7 +7663,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>659</v>
       </c>
@@ -7636,7 +7683,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>662</v>
       </c>
@@ -7656,7 +7703,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>665</v>
       </c>
@@ -7676,7 +7723,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>667</v>
       </c>
@@ -7696,7 +7743,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="11" spans="1:77">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>669</v>
       </c>
@@ -7716,7 +7763,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="12" spans="1:77">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>671</v>
       </c>
@@ -7736,7 +7783,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="13" spans="1:77">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>673</v>
       </c>
@@ -7756,7 +7803,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="14" spans="1:77">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>675</v>
       </c>
@@ -7782,67 +7829,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="321.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="321.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>677</v>
       </c>
@@ -7997,7 +8042,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -8152,7 +8197,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -8301,7 +8346,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>778</v>
       </c>
@@ -8456,12 +8501,12 @@
         <v>828</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>829</v>
       </c>
@@ -8478,25 +8523,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="1181.7109375" customWidth="1"/>
-    <col min="4" max="4" width="135.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="1181.6640625" customWidth="1"/>
+    <col min="4" max="4" width="135.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>832</v>
       </c>
@@ -8525,7 +8569,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>841</v>
       </c>
@@ -8554,7 +8598,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>850</v>
       </c>
@@ -8583,7 +8627,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>859</v>
       </c>
@@ -8612,12 +8656,12 @@
         <v>867</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>868</v>
       </c>
@@ -8643,28 +8687,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>874</v>
       </c>
@@ -8702,7 +8746,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>886</v>
       </c>
@@ -8740,7 +8784,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>896</v>
       </c>
@@ -8778,7 +8822,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>907</v>
       </c>
@@ -8816,12 +8860,12 @@
         <v>918</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>919</v>
       </c>
@@ -8844,21 +8888,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>924</v>
       </c>
@@ -8875,7 +8919,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>928</v>
       </c>
@@ -8892,7 +8936,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>933</v>
       </c>
@@ -8909,7 +8953,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>938</v>
       </c>
@@ -8926,12 +8970,12 @@
         <v>942</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>943</v>
       </c>
@@ -8942,46 +8986,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD145"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>944</v>
       </c>
@@ -9073,7 +9115,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>956</v>
       </c>
@@ -9165,7 +9207,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>965</v>
       </c>
@@ -9245,7 +9287,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>975</v>
       </c>
@@ -9337,12 +9379,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>987</v>
       </c>
@@ -9365,7 +9407,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>992</v>
       </c>
@@ -9388,7 +9430,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>994</v>
       </c>
@@ -9411,7 +9453,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>996</v>
       </c>
@@ -9434,7 +9476,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>997</v>
       </c>
@@ -9457,7 +9499,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>999</v>
       </c>
@@ -9480,7 +9522,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1000</v>
       </c>
@@ -9503,7 +9545,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1002</v>
       </c>
@@ -9526,7 +9568,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1003</v>
       </c>
@@ -9549,7 +9591,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1005</v>
       </c>
@@ -9572,7 +9614,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1006</v>
       </c>
@@ -9595,7 +9637,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1008</v>
       </c>
@@ -9618,7 +9660,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1009</v>
       </c>
@@ -9641,7 +9683,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1011</v>
       </c>
@@ -9664,7 +9706,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1012</v>
       </c>
@@ -9687,7 +9729,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1014</v>
       </c>
@@ -9710,7 +9752,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1015</v>
       </c>
@@ -9733,7 +9775,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1017</v>
       </c>
@@ -9756,7 +9798,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1018</v>
       </c>
@@ -9779,7 +9821,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1020</v>
       </c>
@@ -9802,7 +9844,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1021</v>
       </c>
@@ -9825,7 +9867,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1023</v>
       </c>
@@ -9848,7 +9890,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1024</v>
       </c>
@@ -9871,7 +9913,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1026</v>
       </c>
@@ -9894,7 +9936,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1027</v>
       </c>
@@ -9917,7 +9959,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1029</v>
       </c>
@@ -9940,7 +9982,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1030</v>
       </c>
@@ -9963,7 +10005,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1032</v>
       </c>
@@ -9986,7 +10028,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1033</v>
       </c>
@@ -10009,7 +10051,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1035</v>
       </c>
@@ -10032,7 +10074,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1036</v>
       </c>
@@ -10055,7 +10097,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1038</v>
       </c>
@@ -10078,7 +10120,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1039</v>
       </c>
@@ -10101,7 +10143,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1041</v>
       </c>
@@ -10124,7 +10166,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1042</v>
       </c>
@@ -10147,7 +10189,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1044</v>
       </c>
@@ -10170,7 +10212,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1045</v>
       </c>
@@ -10193,7 +10235,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1047</v>
       </c>
@@ -10216,7 +10258,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1048</v>
       </c>
@@ -10239,7 +10281,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1050</v>
       </c>
@@ -10262,7 +10304,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1051</v>
       </c>
@@ -10285,7 +10327,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1053</v>
       </c>
@@ -10308,7 +10350,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1054</v>
       </c>
@@ -10331,7 +10373,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1056</v>
       </c>
@@ -10354,7 +10396,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1057</v>
       </c>
@@ -10377,7 +10419,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1059</v>
       </c>
@@ -10400,7 +10442,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1060</v>
       </c>
@@ -10423,7 +10465,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1062</v>
       </c>
@@ -10446,7 +10488,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1063</v>
       </c>
@@ -10469,7 +10511,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1065</v>
       </c>
@@ -10492,7 +10534,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1066</v>
       </c>
@@ -10515,7 +10557,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1068</v>
       </c>
@@ -10538,7 +10580,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1069</v>
       </c>
@@ -10561,7 +10603,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1071</v>
       </c>
@@ -10584,7 +10626,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1072</v>
       </c>
@@ -10607,7 +10649,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1074</v>
       </c>
@@ -10630,7 +10672,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1075</v>
       </c>
@@ -10653,7 +10695,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1077</v>
       </c>
@@ -10676,7 +10718,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1078</v>
       </c>
@@ -10699,7 +10741,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1080</v>
       </c>
@@ -10722,7 +10764,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1081</v>
       </c>
@@ -10745,7 +10787,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1083</v>
       </c>
@@ -10768,7 +10810,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1084</v>
       </c>
@@ -10791,7 +10833,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1086</v>
       </c>
@@ -10814,7 +10856,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1087</v>
       </c>
@@ -10837,7 +10879,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1089</v>
       </c>
@@ -10860,7 +10902,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1090</v>
       </c>
@@ -10883,7 +10925,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1092</v>
       </c>
@@ -10906,7 +10948,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1093</v>
       </c>
@@ -10929,7 +10971,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1095</v>
       </c>
@@ -10952,7 +10994,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1096</v>
       </c>
@@ -10975,7 +11017,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1098</v>
       </c>
@@ -10998,7 +11040,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1099</v>
       </c>
@@ -11021,7 +11063,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1101</v>
       </c>
@@ -11044,7 +11086,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1102</v>
       </c>
@@ -11067,7 +11109,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1104</v>
       </c>
@@ -11090,7 +11132,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1105</v>
       </c>
@@ -11113,7 +11155,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1107</v>
       </c>
@@ -11136,7 +11178,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1108</v>
       </c>
@@ -11159,7 +11201,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1110</v>
       </c>
@@ -11182,7 +11224,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1111</v>
       </c>
@@ -11205,7 +11247,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1113</v>
       </c>
@@ -11228,7 +11270,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1114</v>
       </c>
@@ -11251,7 +11293,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1116</v>
       </c>
@@ -11274,7 +11316,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1117</v>
       </c>
@@ -11297,7 +11339,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1119</v>
       </c>
@@ -11320,7 +11362,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1120</v>
       </c>
@@ -11343,7 +11385,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1122</v>
       </c>
@@ -11366,7 +11408,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1123</v>
       </c>
@@ -11389,7 +11431,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1125</v>
       </c>
@@ -11412,7 +11454,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1126</v>
       </c>
@@ -11435,7 +11477,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1128</v>
       </c>
@@ -11458,7 +11500,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1129</v>
       </c>
@@ -11481,7 +11523,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1131</v>
       </c>
@@ -11504,7 +11546,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1132</v>
       </c>
@@ -11527,7 +11569,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1134</v>
       </c>
@@ -11550,7 +11592,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1135</v>
       </c>
@@ -11573,7 +11615,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1137</v>
       </c>
@@ -11596,7 +11638,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1138</v>
       </c>
@@ -11619,7 +11661,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1140</v>
       </c>
@@ -11642,7 +11684,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1141</v>
       </c>
@@ -11665,7 +11707,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1143</v>
       </c>
@@ -11688,7 +11730,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1144</v>
       </c>
@@ -11711,7 +11753,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1146</v>
       </c>
@@ -11734,7 +11776,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1147</v>
       </c>
@@ -11757,7 +11799,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1149</v>
       </c>
@@ -11780,7 +11822,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1150</v>
       </c>
@@ -11803,7 +11845,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1152</v>
       </c>
@@ -11826,7 +11868,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1153</v>
       </c>
@@ -11849,7 +11891,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1155</v>
       </c>
@@ -11872,7 +11914,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1156</v>
       </c>
@@ -11895,7 +11937,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1158</v>
       </c>
@@ -11918,7 +11960,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1159</v>
       </c>
@@ -11941,7 +11983,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1161</v>
       </c>
@@ -11964,7 +12006,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1162</v>
       </c>
@@ -11987,7 +12029,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1164</v>
       </c>
@@ -12010,7 +12052,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1165</v>
       </c>
@@ -12033,7 +12075,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1167</v>
       </c>
@@ -12056,7 +12098,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1168</v>
       </c>
@@ -12079,7 +12121,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1170</v>
       </c>
@@ -12102,7 +12144,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1171</v>
       </c>
@@ -12125,7 +12167,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1173</v>
       </c>
@@ -12148,7 +12190,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1174</v>
       </c>
@@ -12171,7 +12213,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1176</v>
       </c>
@@ -12194,7 +12236,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1177</v>
       </c>
@@ -12217,7 +12259,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1179</v>
       </c>
@@ -12240,7 +12282,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1180</v>
       </c>
@@ -12263,7 +12305,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1182</v>
       </c>
@@ -12286,7 +12328,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1183</v>
       </c>
@@ -12309,7 +12351,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1185</v>
       </c>
@@ -12332,7 +12374,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1186</v>
       </c>
@@ -12355,7 +12397,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1188</v>
       </c>
@@ -12378,7 +12420,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1189</v>
       </c>
@@ -12401,7 +12443,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1191</v>
       </c>
@@ -12424,7 +12466,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1192</v>
       </c>
@@ -12447,7 +12489,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1194</v>
       </c>
@@ -12470,7 +12512,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1195</v>
       </c>
@@ -12493,7 +12535,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1197</v>
       </c>
@@ -12516,7 +12558,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1198</v>
       </c>
@@ -12539,7 +12581,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1200</v>
       </c>
@@ -12568,34 +12610,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="321.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="321.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>955</v>
       </c>
@@ -12651,7 +12695,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -12707,7 +12751,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -12757,7 +12801,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>986</v>
       </c>
@@ -12813,12 +12857,12 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>991</v>
       </c>
@@ -12827,6 +12871,9 @@
       </c>
       <c r="G6" t="s">
         <v>1247</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1355</v>
       </c>
     </row>
   </sheetData>
@@ -12835,76 +12882,73 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BH75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -13086,7 +13130,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -13268,7 +13312,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -13429,7 +13473,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -13611,12 +13655,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>212</v>
       </c>
@@ -13633,7 +13677,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -13650,7 +13694,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>220</v>
       </c>
@@ -13667,7 +13711,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -13684,7 +13728,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>228</v>
       </c>
@@ -13701,7 +13745,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>232</v>
       </c>
@@ -13718,7 +13762,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>236</v>
       </c>
@@ -13735,7 +13779,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>240</v>
       </c>
@@ -13752,7 +13796,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>244</v>
       </c>
@@ -13769,7 +13813,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>248</v>
       </c>
@@ -13786,7 +13830,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>252</v>
       </c>
@@ -13803,7 +13847,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>256</v>
       </c>
@@ -13820,7 +13864,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>260</v>
       </c>
@@ -13837,7 +13881,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>264</v>
       </c>
@@ -13854,7 +13898,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>268</v>
       </c>
@@ -13871,7 +13915,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>272</v>
       </c>
@@ -13888,7 +13932,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>276</v>
       </c>
@@ -13905,7 +13949,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>280</v>
       </c>
@@ -13922,7 +13966,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>284</v>
       </c>
@@ -13939,7 +13983,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>288</v>
       </c>
@@ -13956,7 +14000,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>292</v>
       </c>
@@ -13973,7 +14017,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>296</v>
       </c>
@@ -13990,7 +14034,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>300</v>
       </c>
@@ -14007,7 +14051,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>304</v>
       </c>
@@ -14024,7 +14068,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>308</v>
       </c>
@@ -14041,7 +14085,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>312</v>
       </c>
@@ -14058,7 +14102,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>316</v>
       </c>
@@ -14075,7 +14119,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>320</v>
       </c>
@@ -14092,7 +14136,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>324</v>
       </c>
@@ -14109,7 +14153,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>328</v>
       </c>
@@ -14126,7 +14170,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>332</v>
       </c>
@@ -14143,7 +14187,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>336</v>
       </c>
@@ -14160,7 +14204,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>340</v>
       </c>
@@ -14177,7 +14221,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>344</v>
       </c>
@@ -14194,7 +14238,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>348</v>
       </c>
@@ -14211,7 +14255,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>352</v>
       </c>
@@ -14228,7 +14272,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>356</v>
       </c>
@@ -14245,7 +14289,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>360</v>
       </c>
@@ -14262,7 +14306,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>364</v>
       </c>
@@ -14279,7 +14323,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>368</v>
       </c>
@@ -14296,7 +14340,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>372</v>
       </c>
@@ -14313,7 +14357,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>376</v>
       </c>
@@ -14330,7 +14374,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>380</v>
       </c>
@@ -14347,7 +14391,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>384</v>
       </c>
@@ -14364,7 +14408,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>388</v>
       </c>
@@ -14381,7 +14425,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>392</v>
       </c>
@@ -14398,7 +14442,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>396</v>
       </c>
@@ -14415,7 +14459,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>400</v>
       </c>
@@ -14432,7 +14476,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>404</v>
       </c>
@@ -14449,7 +14493,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>408</v>
       </c>
@@ -14466,7 +14510,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>412</v>
       </c>
@@ -14483,7 +14527,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>416</v>
       </c>
@@ -14500,7 +14544,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>420</v>
       </c>
@@ -14517,7 +14561,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="59" spans="1:43">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>424</v>
       </c>
@@ -14534,7 +14578,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="60" spans="1:43">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>428</v>
       </c>
@@ -14551,7 +14595,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="61" spans="1:43">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>432</v>
       </c>
@@ -14568,7 +14612,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="62" spans="1:43">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>436</v>
       </c>
@@ -14585,7 +14629,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="63" spans="1:43">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>440</v>
       </c>
@@ -14602,7 +14646,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="64" spans="1:43">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>444</v>
       </c>
@@ -14619,7 +14663,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="65" spans="1:43">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>448</v>
       </c>
@@ -14636,7 +14680,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="66" spans="1:43">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>452</v>
       </c>
@@ -14653,7 +14697,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="67" spans="1:43">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>456</v>
       </c>
@@ -14670,7 +14714,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="68" spans="1:43">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>460</v>
       </c>
@@ -14687,7 +14731,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="69" spans="1:43">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>464</v>
       </c>
@@ -14704,7 +14748,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="70" spans="1:43">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>468</v>
       </c>
@@ -14721,7 +14765,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="71" spans="1:43">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>472</v>
       </c>
@@ -14738,7 +14782,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="72" spans="1:43">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>476</v>
       </c>
@@ -14755,7 +14799,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="73" spans="1:43">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>480</v>
       </c>
@@ -14772,7 +14816,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="74" spans="1:43">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>484</v>
       </c>
@@ -14789,7 +14833,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="75" spans="1:43">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>488</v>
       </c>
